--- a/Summary List for J2380-KLCC P2.xlsx
+++ b/Summary List for J2380-KLCC P2.xlsx
@@ -11,12 +11,13 @@
     <sheet name="2000" sheetId="2" r:id="rId2"/>
     <sheet name="2200" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Summary List for J2380-KLCC P2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +127,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DP 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>19.575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>22T32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +151,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>34.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>G50T3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,14 +175,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-25.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-19.575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>8.5+12+12+12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>78.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-87.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>qqq122</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DP 11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +227,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>18.575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>40T32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>58.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DQ 19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +259,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>61.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DQ 24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,6 +275,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>16.575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DQ 28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +303,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DQ 31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +403,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>70.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DR 11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,6 +435,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>35.918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DR 18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,7 +447,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>17.343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17.343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>5.6+12+12+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-65.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -383,12 +496,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="6">
@@ -481,27 +597,27 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,11 +949,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:26"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>1</v>
@@ -845,12 +1013,14 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
+      <c r="E3"/>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
+      <c r="J3"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
@@ -858,11 +1028,13 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
+      <c r="P3"/>
       <c r="Q3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
+      <c r="T3"/>
       <c r="U3" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,7 +1057,9 @@
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
@@ -898,7 +1072,9 @@
       <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
@@ -914,7 +1090,9 @@
       <c r="O4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q4" s="3" t="s">
         <v>18</v>
       </c>
@@ -924,7 +1102,9 @@
       <c r="S4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="6"/>
+      <c r="T4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="U4" s="3" t="s">
         <v>21</v>
       </c>
@@ -946,297 +1126,374 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G5" s="7">
-        <v>19.575</v>
+      <c r="E5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8"/>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S5" s="7"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="7">
-        <v>34.5964</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0.00</v>
+      <c r="T5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="R6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="S6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G6" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7">
-        <v>-25</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7">
-        <v>-19.575</v>
-      </c>
-      <c r="L6" s="7">
-        <v>44.575</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="7">
-        <v>78.7807</v>
-      </c>
-      <c r="V6" s="7">
-        <v>10</v>
-      </c>
-      <c r="W6" s="7">
-        <v>-87.30</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="Y6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G7" s="7">
-        <v>19.575</v>
+      <c r="E7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8"/>
+      <c r="I7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="7">
-        <v>34.5964</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0.00</v>
+      <c r="T7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G8" s="7">
-        <v>19.575</v>
+      <c r="E8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="7">
-        <v>34.5964</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0.00</v>
+      <c r="T8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G9" s="7">
-        <v>19.575</v>
+      <c r="E9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="7">
-        <v>34.5964</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0.00</v>
+      <c r="T9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26"/>
+    <row r="10" spans="1:26">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:D3"/>
@@ -1289,11 +1546,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:26"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>1</v>
@@ -1301,12 +1610,14 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
+      <c r="E3"/>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
+      <c r="J3"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1314,11 +1625,13 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
+      <c r="P3"/>
       <c r="Q3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
+      <c r="T3"/>
       <c r="U3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1341,7 +1654,9 @@
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1669,9 @@
       <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1687,9 @@
       <c r="O4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1380,7 +1699,9 @@
       <c r="S4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="6"/>
+      <c r="T4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="U4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1402,1581 +1723,1888 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G5" s="7">
-        <v>18.575</v>
+      <c r="E5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8"/>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S5" s="7"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0.00</v>
+      <c r="T5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G6" s="7">
-        <v>18.575</v>
+      <c r="E6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8"/>
+      <c r="I6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0.00</v>
+      <c r="T6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G7" s="7">
-        <v>18.575</v>
+      <c r="E7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8"/>
+      <c r="I7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0.00</v>
+      <c r="T7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G8" s="7">
-        <v>18.575</v>
+      <c r="E8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0.00</v>
+      <c r="T8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G9" s="7">
-        <v>18.575</v>
+      <c r="E9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0.00</v>
+      <c r="T9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G10" s="7">
-        <v>19.575</v>
+      <c r="E10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="7">
-        <v>61.5047</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0.00</v>
+      <c r="T10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G11" s="7">
-        <v>18.575</v>
+      <c r="E11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8"/>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S11" s="7"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V11" s="7">
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0.00</v>
+      <c r="T11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G12" s="7">
-        <v>18.575</v>
+      <c r="E12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0.00</v>
+      <c r="T12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G13" s="7">
-        <v>16.575</v>
+      <c r="E13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>16.575</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8"/>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S13" s="7"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="7">
-        <v>52.0787</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-      <c r="W13" s="7">
-        <v>0.00</v>
+      <c r="T13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G14" s="7">
-        <v>18.575</v>
+      <c r="E14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8"/>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S14" s="7"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0.00</v>
+      <c r="T14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="7" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G15" s="7">
-        <v>18.575</v>
+      <c r="E15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8"/>
+      <c r="I15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q15" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S15" s="7"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0</v>
-      </c>
-      <c r="W15" s="7">
-        <v>0.00</v>
+      <c r="T15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G16" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>-9</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>27.575</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>9</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="R16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="7">
-        <v>0</v>
-      </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="7">
-        <v>86.6406</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-      <c r="W16" s="7">
-        <v>-100.00</v>
+        <v>32</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G17" s="7">
-        <v>18.575</v>
+      <c r="E17" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8"/>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S17" s="7"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0.00</v>
+      <c r="T17" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G18" s="7">
-        <v>18.575</v>
+      <c r="E18" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="8"/>
+      <c r="I18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S18" s="7"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V18" s="7">
-        <v>0</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0.00</v>
+      <c r="T18" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G19" s="7">
-        <v>18.575</v>
+      <c r="E19" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="8"/>
+      <c r="I19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q19" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S19" s="7"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0.00</v>
+      <c r="T19" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G20" s="7">
-        <v>18.575</v>
+      <c r="E20" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" s="8"/>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S20" s="7"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V20" s="7">
-        <v>0</v>
-      </c>
-      <c r="W20" s="7">
-        <v>0.00</v>
+      <c r="T20" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="7" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G21" s="7">
-        <v>18.575</v>
+      <c r="E21" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8"/>
+      <c r="I21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q21" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S21" s="7"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V21" s="7">
-        <v>0</v>
-      </c>
-      <c r="W21" s="7">
-        <v>0.00</v>
+      <c r="T21" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G22" s="7">
-        <v>18.575</v>
+      <c r="E22" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-      <c r="P22" s="8"/>
+      <c r="I22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q22" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S22" s="7"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V22" s="7">
-        <v>0</v>
-      </c>
-      <c r="W22" s="7">
-        <v>0.00</v>
+      <c r="T22" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G23" s="7">
-        <v>18.575</v>
+      <c r="E23" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" s="8"/>
+      <c r="I23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q23" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S23" s="7"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V23" s="7">
-        <v>0</v>
-      </c>
-      <c r="W23" s="7">
-        <v>0.00</v>
+      <c r="T23" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G24" s="7">
-        <v>19.575</v>
+      <c r="E24" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-      <c r="P24" s="8"/>
+      <c r="I24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q24" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S24" s="7"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="7">
-        <v>61.5047</v>
-      </c>
-      <c r="V24" s="7">
-        <v>0</v>
-      </c>
-      <c r="W24" s="7">
-        <v>0.00</v>
+      <c r="T24" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X24" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="7" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G25" s="7">
-        <v>19.575</v>
+      <c r="E25" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" s="8"/>
+      <c r="I25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q25" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S25" s="7"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="7">
-        <v>61.5047</v>
-      </c>
-      <c r="V25" s="7">
-        <v>0</v>
-      </c>
-      <c r="W25" s="7">
-        <v>0.00</v>
+      <c r="T25" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X25" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="7" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G26" s="7">
-        <v>19.575</v>
+      <c r="E26" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="7">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" s="8"/>
+      <c r="I26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q26" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S26" s="7"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="7">
-        <v>61.5047</v>
-      </c>
-      <c r="V26" s="7">
-        <v>0</v>
-      </c>
-      <c r="W26" s="7">
-        <v>0.00</v>
+      <c r="T26" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="7" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G27" s="7">
-        <v>19.575</v>
+      <c r="E27" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-      <c r="P27" s="8"/>
+      <c r="I27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q27" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S27" s="7"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="7">
-        <v>61.5047</v>
-      </c>
-      <c r="V27" s="7">
-        <v>0</v>
-      </c>
-      <c r="W27" s="7">
-        <v>0.00</v>
+      <c r="T27" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="7" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G28" s="7">
-        <v>19.575</v>
+      <c r="E28" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="7">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="8"/>
+      <c r="I28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q28" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S28" s="7"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="7">
-        <v>61.5047</v>
-      </c>
-      <c r="V28" s="7">
-        <v>0</v>
-      </c>
-      <c r="W28" s="7">
-        <v>0.00</v>
+      <c r="T28" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="7" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G29" s="7">
-        <v>19.575</v>
+      <c r="E29" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="7">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7">
-        <v>19.575</v>
-      </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="8"/>
+      <c r="I29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q29" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S29" s="7"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="7">
-        <v>61.5047</v>
-      </c>
-      <c r="V29" s="7">
-        <v>0</v>
-      </c>
-      <c r="W29" s="7">
-        <v>0.00</v>
+      <c r="T29" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="7" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G30" s="7">
-        <v>18.575</v>
+      <c r="E30" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="7">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" s="8"/>
+      <c r="I30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q30" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V30" s="7">
-        <v>0</v>
-      </c>
-      <c r="W30" s="7">
-        <v>0.00</v>
+      <c r="T30" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X30" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="7" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G31" s="7">
-        <v>18.575</v>
+      <c r="E31" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="7">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-      <c r="P31" s="8"/>
+      <c r="I31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q31" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S31" s="7"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V31" s="7">
-        <v>0</v>
-      </c>
-      <c r="W31" s="7">
-        <v>0.00</v>
+      <c r="T31" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="7" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G32" s="7">
-        <v>18.575</v>
+      <c r="E32" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="8"/>
+      <c r="I32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q32" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S32" s="7"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="7">
-        <v>58.3627</v>
-      </c>
-      <c r="V32" s="7">
-        <v>0</v>
-      </c>
-      <c r="W32" s="7">
-        <v>0.00</v>
+      <c r="T32" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26"/>
+    <row r="33" spans="1:26">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:D3"/>
@@ -3029,11 +3657,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:26"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>1</v>
@@ -3041,12 +3721,14 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
+      <c r="E3"/>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
+      <c r="J3"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3054,11 +3736,13 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
+      <c r="P3"/>
       <c r="Q3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
+      <c r="T3"/>
       <c r="U3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3081,7 +3765,9 @@
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3094,7 +3780,9 @@
       <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
@@ -3110,7 +3798,9 @@
       <c r="O4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q4" s="3" t="s">
         <v>18</v>
       </c>
@@ -3120,7 +3810,9 @@
       <c r="S4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="6"/>
+      <c r="T4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="U4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3142,793 +3834,960 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="7" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G5" s="7">
-        <v>18.575</v>
+      <c r="E5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8"/>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S5" s="7"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0.00</v>
+      <c r="T5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="7" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G6" s="7">
-        <v>18.575</v>
+      <c r="E6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8"/>
+      <c r="I6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0.00</v>
+      <c r="T6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G7" s="7">
-        <v>18.575</v>
+      <c r="E7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8"/>
+      <c r="I7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0.00</v>
+      <c r="T7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="7" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G8" s="7">
-        <v>18.575</v>
+      <c r="E8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0.00</v>
+      <c r="T8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G9" s="7">
-        <v>18.575</v>
+      <c r="E9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q9" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0.00</v>
+      <c r="T9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="7" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G10" s="7">
-        <v>18.575</v>
+      <c r="E10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q10" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0.00</v>
+      <c r="T10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="7" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G11" s="7">
-        <v>18.575</v>
+      <c r="E11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8"/>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S11" s="7"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V11" s="7">
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0.00</v>
+      <c r="T11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="7" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G12" s="7">
-        <v>18.575</v>
+      <c r="E12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0.00</v>
+      <c r="T12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7">
-        <v>35.918</v>
-      </c>
-      <c r="G13" s="7">
-        <v>18.575</v>
+      <c r="E13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7">
-        <v>35.918</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7">
-        <v>17.343</v>
-      </c>
-      <c r="L13" s="7">
-        <v>-17.343</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>9</v>
-      </c>
-      <c r="P13" s="8"/>
+      <c r="I13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="7">
-        <v>-65.935</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-      <c r="W13" s="7">
-        <v>-100.00</v>
+        <v>109</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="7" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G14" s="7">
-        <v>18.575</v>
+      <c r="E14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8"/>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S14" s="7"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0.00</v>
+      <c r="T14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="7" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G15" s="7">
-        <v>18.575</v>
+      <c r="E15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8"/>
+      <c r="I15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q15" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S15" s="7"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0</v>
-      </c>
-      <c r="W15" s="7">
-        <v>0.00</v>
+      <c r="T15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="7" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G16" s="7">
-        <v>18.575</v>
+      <c r="E16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8"/>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S16" s="7"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-      <c r="W16" s="7">
-        <v>0.00</v>
+      <c r="T16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="7" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G17" s="7">
-        <v>18.575</v>
+      <c r="E17" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8"/>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S17" s="7"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0.00</v>
+      <c r="T17" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G18" s="7">
-        <v>18.575</v>
+      <c r="E18" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>18.575</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="8"/>
+      <c r="I18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q18" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S18" s="7"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="7">
-        <v>70.6188</v>
-      </c>
-      <c r="V18" s="7">
-        <v>0</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0.00</v>
+      <c r="T18" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:26"/>
+    <row r="19" spans="1:26">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:D3"/>
